--- a/medicine/Enfance/Jacqueline_Desmiers_de_Chenon/Jacqueline_Desmiers_de_Chenon.xlsx
+++ b/medicine/Enfance/Jacqueline_Desmiers_de_Chenon/Jacqueline_Desmiers_de_Chenon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La comtesse Jacqueline Desmiers de Chenon (Paris, 28 juin 1887 - Paris, 24 mars 1959[1]) est une illustratrice française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La comtesse Jacqueline Desmiers de Chenon (Paris, 28 juin 1887 - Paris, 24 mars 1959) est une illustratrice française.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille de colonel d'artillerie, Jacqueline Piarron de Mondésir se maria à un jeune capitaine, Georges Desmiers de Chenon, mort au combat en 1915 à l'âge de 30 ans.
-Elle illustra plusieurs contes pour enfants édités par la Maison Mame et Cie et exposa au Salon des artistes français en 1938[2]. Elle était la petite-fille par alliance du collectionneur baron Arthur Chassériau.
+Elle illustra plusieurs contes pour enfants édités par la Maison Mame et Cie et exposa au Salon des artistes français en 1938. Elle était la petite-fille par alliance du collectionneur baron Arthur Chassériau.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Illustrations
 Enfants, poésies de Mme Marceline Desbordes-Valmore, illustrations en camaïeu de la Comtesse Desmiers de Chenon, édité par Maison Mame (1923)
